--- a/JupyterNotebooks/AveragedIntensites/GossA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW35.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9958953092042193</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.012687467361678</v>
+      </c>
+      <c r="D16">
+        <v>0.9733256173515474</v>
+      </c>
+      <c r="E16">
+        <v>1.003347938170875</v>
+      </c>
+      <c r="F16">
+        <v>0.9907697088879488</v>
+      </c>
+      <c r="G16">
+        <v>1.012687467361678</v>
+      </c>
+      <c r="H16">
+        <v>0.9733256173515474</v>
+      </c>
+      <c r="I16">
+        <v>1.002120725760857</v>
+      </c>
+      <c r="J16">
+        <v>0.9906243530516571</v>
+      </c>
+      <c r="K16">
+        <v>1.001125728766453</v>
+      </c>
+      <c r="L16">
+        <v>0.9802829572373952</v>
+      </c>
+      <c r="M16">
+        <v>1.012687467361678</v>
+      </c>
+      <c r="N16">
+        <v>0.9883367777612111</v>
+      </c>
+      <c r="O16">
+        <v>0.9950326829430123</v>
+      </c>
+      <c r="P16">
+        <v>0.9942855620735516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.012687467361678</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9590199999999987</v>
+        <v>1.012687467361678</v>
       </c>
       <c r="D10">
-        <v>1.038036000000002</v>
+        <v>0.9733256173515474</v>
       </c>
       <c r="E10">
-        <v>0.9985720000000012</v>
+        <v>1.003347938170875</v>
       </c>
       <c r="F10">
-        <v>1.004356000000001</v>
+        <v>0.9907697088879488</v>
       </c>
       <c r="G10">
-        <v>0.9590199999999987</v>
+        <v>1.012687467361678</v>
       </c>
       <c r="H10">
-        <v>1.038036000000002</v>
+        <v>0.9733256173515474</v>
       </c>
       <c r="I10">
-        <v>0.9804559999999984</v>
+        <v>1.002120725760857</v>
       </c>
       <c r="J10">
-        <v>1.002692</v>
+        <v>0.9906243530516571</v>
       </c>
       <c r="K10">
-        <v>0.9775199999999988</v>
+        <v>1.001125728766453</v>
       </c>
       <c r="L10">
-        <v>1.028484000000002</v>
+        <v>0.9802829572373952</v>
       </c>
       <c r="M10">
-        <v>0.9590199999999987</v>
+        <v>1.012687467361678</v>
       </c>
       <c r="N10">
-        <v>1.018304000000002</v>
+        <v>0.9883367777612111</v>
       </c>
       <c r="O10">
-        <v>0.9999960000000008</v>
+        <v>0.9950326829430123</v>
       </c>
       <c r="P10">
-        <v>0.9986420000000003</v>
+        <v>0.9942855620735516</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.06</v>
+        <v>0.8837512452138621</v>
       </c>
       <c r="D11">
-        <v>0.88</v>
+        <v>1.157191612340948</v>
       </c>
       <c r="E11">
-        <v>1.05</v>
+        <v>0.9562621741901214</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>1.030364935619139</v>
       </c>
       <c r="G11">
-        <v>1.06</v>
+        <v>0.8837512452138621</v>
       </c>
       <c r="H11">
-        <v>0.88</v>
+        <v>1.157191612340948</v>
       </c>
       <c r="I11">
-        <v>1.04</v>
+        <v>0.9357865172518294</v>
       </c>
       <c r="J11">
-        <v>0.9705500000000015</v>
+        <v>1.030177083171124</v>
       </c>
       <c r="K11">
-        <v>1.01</v>
+        <v>0.955779366648643</v>
       </c>
       <c r="L11">
-        <v>0.93</v>
+        <v>1.099447829394595</v>
       </c>
       <c r="M11">
-        <v>1.06</v>
+        <v>0.8837512452138621</v>
       </c>
       <c r="N11">
-        <v>0.9650000000000001</v>
+        <v>1.056726893265535</v>
       </c>
       <c r="O11">
-        <v>0.99</v>
+        <v>1.006892491841018</v>
       </c>
       <c r="P11">
-        <v>0.9888187500000002</v>
+        <v>1.006095095478783</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.032199403212798</v>
+        <v>0.8832881026964334</v>
       </c>
       <c r="D12">
-        <v>0.928224422399998</v>
+        <v>1.157909614783843</v>
       </c>
       <c r="E12">
-        <v>1.0262974742528</v>
+        <v>0.9559971214431333</v>
       </c>
       <c r="F12">
-        <v>0.9806071586815966</v>
+        <v>1.03051882248097</v>
       </c>
       <c r="G12">
-        <v>1.032199403212798</v>
+        <v>0.8832881026964334</v>
       </c>
       <c r="H12">
-        <v>0.928224422399998</v>
+        <v>1.157909614783843</v>
       </c>
       <c r="I12">
-        <v>1.021111228006398</v>
+        <v>0.9355071232886071</v>
       </c>
       <c r="J12">
-        <v>0.9813853908991952</v>
+        <v>1.030340118072012</v>
       </c>
       <c r="K12">
-        <v>1.004316422758409</v>
+        <v>0.9556190990046128</v>
       </c>
       <c r="L12">
-        <v>0.9573281386496009</v>
+        <v>1.099923729859661</v>
       </c>
       <c r="M12">
-        <v>1.032189573222398</v>
+        <v>0.8832881026964334</v>
       </c>
       <c r="N12">
-        <v>0.9772609483263991</v>
+        <v>1.056953368113488</v>
       </c>
       <c r="O12">
-        <v>0.9918321146367983</v>
+        <v>1.006928415351095</v>
       </c>
       <c r="P12">
-        <v>0.9914337048575995</v>
+        <v>1.006137966453659</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9952355635981295</v>
+        <v>0.8836350076755067</v>
       </c>
       <c r="D13">
-        <v>0.9953179138043176</v>
+        <v>1.157322231964719</v>
       </c>
       <c r="E13">
-        <v>0.9948001574743723</v>
+        <v>0.9561919229152361</v>
       </c>
       <c r="F13">
-        <v>0.9948634765886855</v>
+        <v>1.030390411271217</v>
       </c>
       <c r="G13">
-        <v>0.9952355635981295</v>
+        <v>0.8836350076755067</v>
       </c>
       <c r="H13">
-        <v>0.9953179138043176</v>
+        <v>1.157322231964719</v>
       </c>
       <c r="I13">
-        <v>0.9953262696288407</v>
+        <v>0.9357251693695012</v>
       </c>
       <c r="J13">
-        <v>0.9953240242028581</v>
+        <v>1.030239989415064</v>
       </c>
       <c r="K13">
-        <v>0.9952306591546022</v>
+        <v>0.9557565093288464</v>
       </c>
       <c r="L13">
-        <v>0.9950173141090007</v>
+        <v>1.099545294111225</v>
       </c>
       <c r="M13">
-        <v>0.9952226233075049</v>
+        <v>0.8836350076755067</v>
       </c>
       <c r="N13">
-        <v>0.9950590356393449</v>
+        <v>1.056757077439977</v>
       </c>
       <c r="O13">
-        <v>0.9950542778663762</v>
+        <v>1.006884893456669</v>
       </c>
       <c r="P13">
-        <v>0.9951394223201009</v>
+        <v>1.006100817006414</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9931447245532286</v>
+        <v>0.9590199999999987</v>
       </c>
       <c r="D14">
-        <v>0.9984456907654522</v>
+        <v>1.038036000000002</v>
       </c>
       <c r="E14">
-        <v>0.9939530070619301</v>
+        <v>0.9985720000000012</v>
       </c>
       <c r="F14">
-        <v>0.995035253390949</v>
+        <v>1.004356000000001</v>
       </c>
       <c r="G14">
-        <v>0.9931447245532286</v>
+        <v>0.9590199999999987</v>
       </c>
       <c r="H14">
-        <v>0.9984456907654522</v>
+        <v>1.038036000000002</v>
       </c>
       <c r="I14">
-        <v>0.9934969323754251</v>
+        <v>0.9804559999999984</v>
       </c>
       <c r="J14">
-        <v>0.9962376334013403</v>
+        <v>1.002692</v>
       </c>
       <c r="K14">
-        <v>0.9944808641802028</v>
+        <v>0.9775199999999988</v>
       </c>
       <c r="L14">
-        <v>0.9967598352652345</v>
+        <v>1.028484000000002</v>
       </c>
       <c r="M14">
-        <v>0.9931447245532286</v>
+        <v>0.9590199999999987</v>
       </c>
       <c r="N14">
-        <v>0.9961993489136911</v>
+        <v>1.018304000000002</v>
       </c>
       <c r="O14">
-        <v>0.99514466894289</v>
+        <v>0.9999960000000008</v>
       </c>
       <c r="P14">
-        <v>0.9951942426242203</v>
+        <v>0.9986420000000003</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9875977552893787</v>
+        <v>1.06</v>
       </c>
       <c r="D15">
-        <v>1.006446160195739</v>
+        <v>0.88</v>
       </c>
       <c r="E15">
-        <v>0.9920658845531163</v>
+        <v>1.05</v>
       </c>
       <c r="F15">
-        <v>0.9975456669584206</v>
+        <v>0.97</v>
       </c>
       <c r="G15">
-        <v>0.9875977552893787</v>
+        <v>1.06</v>
       </c>
       <c r="H15">
-        <v>1.006446160195739</v>
+        <v>0.88</v>
       </c>
       <c r="I15">
-        <v>0.9911210361856434</v>
+        <v>1.04</v>
       </c>
       <c r="J15">
-        <v>0.9971178624265493</v>
+        <v>0.9705500000000015</v>
       </c>
       <c r="K15">
-        <v>0.9926101872109829</v>
+        <v>1.01</v>
       </c>
       <c r="L15">
-        <v>1.002657920813923</v>
+        <v>0.93</v>
       </c>
       <c r="M15">
-        <v>0.9875819583727087</v>
+        <v>1.06</v>
       </c>
       <c r="N15">
-        <v>0.9992560223744278</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="O15">
-        <v>0.9959138667491637</v>
+        <v>0.99</v>
       </c>
       <c r="P15">
-        <v>0.9958953092042193</v>
+        <v>0.9888187500000002</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012687467361678</v>
+        <v>1.032199403212798</v>
       </c>
       <c r="D16">
-        <v>0.9733256173515474</v>
+        <v>0.928224422399998</v>
       </c>
       <c r="E16">
-        <v>1.003347938170875</v>
+        <v>1.0262974742528</v>
       </c>
       <c r="F16">
-        <v>0.9907697088879488</v>
+        <v>0.9806071586815966</v>
       </c>
       <c r="G16">
-        <v>1.012687467361678</v>
+        <v>1.032199403212798</v>
       </c>
       <c r="H16">
-        <v>0.9733256173515474</v>
+        <v>0.928224422399998</v>
       </c>
       <c r="I16">
-        <v>1.002120725760857</v>
+        <v>1.021111228006398</v>
       </c>
       <c r="J16">
-        <v>0.9906243530516571</v>
+        <v>0.9813853908991952</v>
       </c>
       <c r="K16">
-        <v>1.001125728766453</v>
+        <v>1.004316422758409</v>
       </c>
       <c r="L16">
-        <v>0.9802829572373952</v>
+        <v>0.9573281386496009</v>
       </c>
       <c r="M16">
-        <v>1.012687467361678</v>
+        <v>1.032189573222398</v>
       </c>
       <c r="N16">
-        <v>0.9883367777612111</v>
+        <v>0.9772609483263991</v>
       </c>
       <c r="O16">
-        <v>0.9950326829430123</v>
+        <v>0.9918321146367983</v>
       </c>
       <c r="P16">
-        <v>0.9942855620735516</v>
+        <v>0.9914337048575995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9952355635981295</v>
+      </c>
+      <c r="D17">
+        <v>0.9953179138043176</v>
+      </c>
+      <c r="E17">
+        <v>0.9948001574743723</v>
+      </c>
+      <c r="F17">
+        <v>0.9948634765886855</v>
+      </c>
+      <c r="G17">
+        <v>0.9952355635981295</v>
+      </c>
+      <c r="H17">
+        <v>0.9953179138043176</v>
+      </c>
+      <c r="I17">
+        <v>0.9953262696288407</v>
+      </c>
+      <c r="J17">
+        <v>0.9953240242028581</v>
+      </c>
+      <c r="K17">
+        <v>0.9952306591546022</v>
+      </c>
+      <c r="L17">
+        <v>0.9950173141090007</v>
+      </c>
+      <c r="M17">
+        <v>0.9952226233075049</v>
+      </c>
+      <c r="N17">
+        <v>0.9950590356393449</v>
+      </c>
+      <c r="O17">
+        <v>0.9950542778663762</v>
+      </c>
+      <c r="P17">
+        <v>0.9951394223201009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9931447245532286</v>
+      </c>
+      <c r="D18">
+        <v>0.9984456907654522</v>
+      </c>
+      <c r="E18">
+        <v>0.9939530070619301</v>
+      </c>
+      <c r="F18">
+        <v>0.995035253390949</v>
+      </c>
+      <c r="G18">
+        <v>0.9931447245532286</v>
+      </c>
+      <c r="H18">
+        <v>0.9984456907654522</v>
+      </c>
+      <c r="I18">
+        <v>0.9934969323754251</v>
+      </c>
+      <c r="J18">
+        <v>0.9962376334013403</v>
+      </c>
+      <c r="K18">
+        <v>0.9944808641802028</v>
+      </c>
+      <c r="L18">
+        <v>0.9967598352652345</v>
+      </c>
+      <c r="M18">
+        <v>0.9931447245532286</v>
+      </c>
+      <c r="N18">
+        <v>0.9961993489136911</v>
+      </c>
+      <c r="O18">
+        <v>0.99514466894289</v>
+      </c>
+      <c r="P18">
+        <v>0.9951942426242203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9875977552893787</v>
+      </c>
+      <c r="D19">
+        <v>1.006446160195739</v>
+      </c>
+      <c r="E19">
+        <v>0.9920658845531163</v>
+      </c>
+      <c r="F19">
+        <v>0.9975456669584206</v>
+      </c>
+      <c r="G19">
+        <v>0.9875977552893787</v>
+      </c>
+      <c r="H19">
+        <v>1.006446160195739</v>
+      </c>
+      <c r="I19">
+        <v>0.9911210361856434</v>
+      </c>
+      <c r="J19">
+        <v>0.9971178624265493</v>
+      </c>
+      <c r="K19">
+        <v>0.9926101872109829</v>
+      </c>
+      <c r="L19">
+        <v>1.002657920813923</v>
+      </c>
+      <c r="M19">
+        <v>0.9875819583727087</v>
+      </c>
+      <c r="N19">
+        <v>0.9992560223744278</v>
+      </c>
+      <c r="O19">
+        <v>0.9959138667491637</v>
+      </c>
+      <c r="P19">
+        <v>0.9958953092042193</v>
       </c>
     </row>
   </sheetData>
